--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Area</x:t>
   </x:si>
@@ -50,10 +50,7 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Success</x:t>
+    <x:t>Completed</x:t>
   </x:si>
   <x:si>
     <x:t>Hyderabad</x:t>
@@ -106,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="4">
-    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <x:numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </x:numFmts>
   <x:fonts count="21">
     <x:font>
@@ -127,22 +124,17 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF9C6500"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F3F"/>
       <x:name val="Calibri"/>
       <x:charset val="0"/>
       <x:scheme val="minor"/>
@@ -156,78 +148,92 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
       <x:b/>
       <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF800080"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C6500"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
       <x:color theme="3"/>
       <x:name val="Calibri"/>
       <x:charset val="134"/>
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF006100"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
       <x:i/>
       <x:sz val="11"/>
       <x:color rgb="FF7F7F7F"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color rgb="FF800080"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFFFFFF"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF9C0006"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF006100"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FF3F3F3F"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FFFA7D00"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFA7D00"/>
       <x:name val="Calibri"/>
       <x:charset val="0"/>
       <x:scheme val="minor"/>
@@ -242,23 +248,14 @@
     </x:font>
     <x:font>
       <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
       <x:color rgb="FF3F3F76"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="18"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
       <x:name val="Calibri"/>
       <x:charset val="0"/>
       <x:scheme val="minor"/>
@@ -280,31 +277,163 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor theme="6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFCC"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFEB9C"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC6EFCE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor theme="4" tint="0.399975585192419"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFEB9C"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:fgColor theme="8" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.799981688894314"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -316,31 +445,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA5A5A5"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4"/>
+        <x:fgColor theme="9" tint="0.799981688894314"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -352,115 +457,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFC6EFCE"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFF2F2F2"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFFCC"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFCC99"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.599993896298105"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -471,6 +468,36 @@
       <x:right/>
       <x:top/>
       <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
       <x:diagonal/>
     </x:border>
     <x:border>
@@ -498,56 +525,6 @@
       <x:diagonal/>
     </x:border>
     <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color theme="4"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color theme="4"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="double">
-        <x:color rgb="FFFF8001"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
       <x:left style="thin">
         <x:color rgb="FFB2B2B2"/>
       </x:left>
@@ -565,16 +542,39 @@
     <x:border>
       <x:left/>
       <x:right/>
+      <x:top style="thin">
+        <x:color theme="4"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
       <x:top/>
       <x:bottom style="medium">
         <x:color theme="4" tint="0.499984740745262"/>
       </x:bottom>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="double">
+        <x:color rgb="FFFF8001"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="50">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,139 +583,136 @@
     <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <x:xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1052,11 +1049,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:F5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <x:selection activeCell="E7" sqref="E7 E7:E7"/>
+    <x:sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2 E2:E2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="77.657955" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="80.497045" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="2" t="s">
@@ -1091,74 +1088,71 @@
       <x:c r="D2" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="D3" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="E3" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
+      <x:c r="E4" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="E5" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1179,7 +1173,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="51.367045" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="54.206136" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>
@@ -1202,7 +1196,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="51.367045" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="54.206136" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>
@@ -1225,7 +1219,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="51.367045" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="54.206136" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -41,61 +41,61 @@
     <x:t>Tirupati</x:t>
   </x:si>
   <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Completed</x:t>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success</x:t>
   </x:si>
   <x:si>
     <x:t>Hyderabad</x:t>
   </x:si>
   <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cuddapah</x:t>
+  </x:si>
+  <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vizag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuddapah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vizag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
+    <x:t>81</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1053,7 +1053,7 @@
       <x:selection activeCell="E2" sqref="E2 E2:E2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="80.497045" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="97.552045" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="2" t="s">
@@ -1088,69 +1088,71 @@
       <x:c r="D2" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1173,7 +1175,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="54.206136" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="71.261136" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>
@@ -1196,7 +1198,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="54.206136" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="71.261136" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>
@@ -1219,7 +1221,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="54.206136" defaultRowHeight="14.5"/>
+  <x:sheetFormatPr defaultColWidth="71.261136" defaultRowHeight="14.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>
